--- a/Summary CO-PO MOS U15AET501 -odd 2018-19-Micro.xlsx
+++ b/Summary CO-PO MOS U15AET501 -odd 2018-19-Micro.xlsx
@@ -791,8 +791,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No of
-Students</t>
+          <t>Total Students</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1114,51 +1113,43 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1931,51 +1922,43 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2766,51 +2749,43 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3601,51 +3576,43 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -4418,51 +4385,43 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -5235,51 +5194,43 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 3</t>
+          <t>INT Grade 3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 2</t>
+          <t>INT Grade 2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Total INT
-Grade 1</t>
+          <t>INT Grade 1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>INT Avg
-Grade</t>
+          <t>INT Avg Grade</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 3</t>
+          <t>ES Grade 3</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 2</t>
+          <t>ES Grade 2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Total ES
-Grade 1</t>
+          <t>ES Grade 1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ES Avg
-Grade</t>
+          <t>ES Avg Grade</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
